--- a/Lab3/Диаграммы.xlsx
+++ b/Lab3/Диаграммы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepositoryes\Экономика программной инженерии\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1AE150-2603-4E0B-9ACD-DE05A5378ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD420D06-2F81-4427-B9C5-6B094543632C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Название ресурса</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Трудозатраты</t>
+  </si>
+  <si>
+    <t>Оставшиеся</t>
   </si>
 </sst>
 </file>
@@ -935,6 +938,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F8B0-4B7F-B3B9-4AF7A74A6A9A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -950,6 +958,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F8B0-4B7F-B3B9-4AF7A74A6A9A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -965,6 +978,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F8B0-4B7F-B3B9-4AF7A74A6A9A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -980,6 +998,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F8B0-4B7F-B3B9-4AF7A74A6A9A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -995,6 +1018,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F8B0-4B7F-B3B9-4AF7A74A6A9A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1010,6 +1038,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-F8B0-4B7F-B3B9-4AF7A74A6A9A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1027,6 +1060,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-F8B0-4B7F-B3B9-4AF7A74A6A9A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1044,6 +1082,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-F8B0-4B7F-B3B9-4AF7A74A6A9A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1084,28 +1127,28 @@
                 <c:formatCode>"₽"#,##0.00_);[Red]\("₽"#,##0.00\)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5613.58</c:v>
+                  <c:v>3547.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2352</c:v>
+                  <c:v>1466</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10360</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4850</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6748</c:v>
+                  <c:v>4260</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1490</c:v>
+                  <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1154</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24215.18</c:v>
+                  <c:v>22435.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,6 +1289,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-57AF-4D92-B82E-C1DCD97D8244}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1261,6 +1309,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-57AF-4D92-B82E-C1DCD97D8244}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1276,6 +1329,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-57AF-4D92-B82E-C1DCD97D8244}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1291,6 +1349,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-57AF-4D92-B82E-C1DCD97D8244}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1306,6 +1369,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-57AF-4D92-B82E-C1DCD97D8244}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1321,6 +1389,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-57AF-4D92-B82E-C1DCD97D8244}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1338,6 +1411,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-57AF-4D92-B82E-C1DCD97D8244}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1355,6 +1433,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-57AF-4D92-B82E-C1DCD97D8244}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1395,28 +1478,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="#,##0.00">
-                  <c:v>2806.78</c:v>
+                  <c:v>1773.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>186</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>218</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="#,##0">
                   <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>476</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>218</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>258</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="#,##0">
-                  <c:v>2738</c:v>
+                  <c:v>2740</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4172,7 +4255,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4197,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4215,11 +4298,11 @@
         <v>2</v>
       </c>
       <c r="H2" s="4">
-        <v>5613.58</v>
+        <v>3547.64</v>
       </c>
       <c r="I2" s="6">
         <f>H2/$H$10</f>
-        <v>9.886064009569101E-2</v>
+        <v>8.155715488374167E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4237,11 +4320,11 @@
         <v>3</v>
       </c>
       <c r="H3" s="4">
-        <v>2352</v>
+        <v>1466</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" ref="I3:I9" si="1">H3/$H$10</f>
-        <v>4.1421022859755317E-2</v>
+        <v>3.3702063642186156E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4259,11 +4342,11 @@
         <v>4</v>
       </c>
       <c r="H4" s="4">
-        <v>10360</v>
+        <v>5000</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" si="1"/>
-        <v>0.18244974354892224</v>
+        <v>0.11494564680145347</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4285,7 +4368,7 @@
       </c>
       <c r="I5" s="6">
         <f t="shared" si="1"/>
-        <v>8.5413248669138311E-2</v>
+        <v>0.11149727739740986</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4303,11 +4386,11 @@
         <v>6</v>
       </c>
       <c r="H6" s="4">
-        <v>6748</v>
+        <v>4260</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="1"/>
-        <v>0.118838887014298</v>
+        <v>9.7933691074838347E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4325,11 +4408,11 @@
         <v>7</v>
       </c>
       <c r="H7" s="4">
-        <v>1490</v>
+        <v>1140</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="1"/>
-        <v>2.6240358869487852E-2</v>
+        <v>2.6207607470731389E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4347,11 +4430,11 @@
         <v>8</v>
       </c>
       <c r="H8" s="4">
-        <v>1154</v>
+        <v>800</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="1"/>
-        <v>2.0323069889522805E-2</v>
+        <v>1.8391303488232553E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4369,11 +4452,11 @@
         <v>9</v>
       </c>
       <c r="H9" s="4">
-        <v>24215.18</v>
+        <v>22435.18</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="1"/>
-        <v>0.42645302905318444</v>
+        <v>0.51576525524140659</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4383,7 +4466,7 @@
       </c>
       <c r="H10" s="3">
         <f>SUM(H2:H9)</f>
-        <v>56782.76</v>
+        <v>43498.82</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4415,11 +4498,11 @@
         <v>2</v>
       </c>
       <c r="H23" s="10">
-        <v>2806.78</v>
+        <v>1773.82</v>
       </c>
       <c r="I23" s="8">
         <f>H23/$H$31</f>
-        <v>0.30177899057928476</v>
+        <v>0.21418238986116578</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4437,11 +4520,11 @@
         <v>3</v>
       </c>
       <c r="H24" s="5">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" ref="I24:I30" si="3">H24/$H$31</f>
-        <v>1.9998322721320145E-2</v>
+        <v>2.270032432484647E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -4459,11 +4542,11 @@
         <v>4</v>
       </c>
       <c r="H25" s="5">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="3"/>
-        <v>2.3438894372299957E-2</v>
+        <v>2.6564209316309702E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -4485,7 +4568,7 @@
       </c>
       <c r="I26" s="8">
         <f t="shared" si="3"/>
-        <v>0.25804287382348573</v>
+        <v>0.28979137435974217</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -4503,11 +4586,11 @@
         <v>6</v>
       </c>
       <c r="H27" s="5">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" si="3"/>
-        <v>5.1178503308324672E-2</v>
+        <v>5.7958274871948441E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4525,11 +4608,11 @@
         <v>7</v>
       </c>
       <c r="H28" s="5">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="3"/>
-        <v>2.3438894372299957E-2</v>
+        <v>2.6564209316309702E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4547,11 +4630,11 @@
         <v>8</v>
       </c>
       <c r="H29" s="5">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" si="3"/>
-        <v>2.7739608936024718E-2</v>
+        <v>3.1394065555638735E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4569,11 +4652,11 @@
         <v>9</v>
       </c>
       <c r="H30" s="9">
-        <v>2738</v>
+        <v>2740</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" si="3"/>
-        <v>0.29438391188696</v>
+        <v>0.330845152394039</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4583,7 +4666,7 @@
       </c>
       <c r="H31" s="7">
         <f>SUM(H23:H30)</f>
-        <v>9300.7800000000007</v>
+        <v>8281.82</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
